--- a/nataly/files/outerwear.xlsx
+++ b/nataly/files/outerwear.xlsx
@@ -85,7 +85,6 @@
   <si>
     <t>в ателье</t>
   </si>
-  <si/>
   <si>
     <r>
       <rPr>
@@ -175,6 +174,24 @@
       <t>6. Пиждак (без подкладки)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <sz val="14"/>
+      </rPr>
+      <t>10. Жакет (с подкладкой)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial Narrow"/>
+        <sz val="14"/>
+      </rPr>
+      <t>11. Жакет (без подкладки)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -182,20 +199,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1006"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1007"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1004"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1012"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1013"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1009"/>
+    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1008"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1005"/>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1010"/>
     <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1014"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1008"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1009"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1005"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1007"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1004"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1013"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1011"/>
-    <numFmt co:extendedFormatCode="0.00;-0.00" formatCode="0.00;-0.00" numFmtId="1010"/>
-    <numFmt co:extendedFormatCode="0.0" formatCode="0.0" numFmtId="1012"/>
-    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0.0" formatCode="0.0" numFmtId="1011"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -229,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -238,41 +255,71 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
@@ -394,9 +441,48 @@
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
     </border>
     <border>
       <left style="thin">
@@ -478,136 +564,130 @@
   <cellStyleXfs count="1">
     <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
     <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="2" fillId="0" fontId="3" quotePrefix="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" borderId="3" fillId="0" fontId="3" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="3" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="2" fontId="2" numFmtId="1002" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="2" fontId="3" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1004" quotePrefix="false">
+      <alignment horizontal="right" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="left" indent="1" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1005" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="2" fontId="3" numFmtId="1007" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="2" numFmtId="1008" quotePrefix="false">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1004" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
-      <alignment horizontal="right" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1008" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1010" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1009" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="left" indent="1" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="3" numFmtId="1002" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="2" fontId="2" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1007" quotePrefix="false">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="2" fontId="2" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="2" fontId="3" numFmtId="1008" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="2" fontId="3" numFmtId="1010" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="2" fontId="2" numFmtId="1005" quotePrefix="false">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1011" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1012" quotePrefix="false">
-      <alignment horizontal="left" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1011" quotePrefix="false">
       <alignment horizontal="left" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1010" quotePrefix="false">
+      <alignment horizontal="left" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="2" fontId="3" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="3" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1009" quotePrefix="false">
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="2" fontId="2" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="2" fontId="2" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="2" fontId="2" numFmtId="1012" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="2" fontId="2" numFmtId="1012" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1013" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="2" fontId="2" numFmtId="1006" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1014" quotePrefix="false"/>
@@ -829,7 +909,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:Z305"/>
+  <dimension ref="A1:Z302"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -858,1781 +938,1666 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="5" t="n"/>
+      <c r="L1" s="5" t="n"/>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
+      <c r="H2" s="9" t="n"/>
+      <c r="I2" s="10" t="n"/>
+      <c r="J2" s="11" t="n"/>
+      <c r="K2" s="11" t="s"/>
+      <c r="L2" s="12" t="n"/>
+    </row>
+    <row customHeight="true" ht="19.2343597412109" outlineLevel="0" r="3">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="10" t="n"/>
-      <c r="I2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="s"/>
-      <c r="L2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12" t="n"/>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="s"/>
-      <c r="L3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F3" s="0" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="s"/>
+      <c r="L3" s="12" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="19" t="s"/>
+      <c r="B4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F4" s="0" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="17" t="n"/>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="18" t="n"/>
+      <c r="K4" s="18" t="s"/>
+      <c r="L4" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="20" t="s"/>
+      <c r="B5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F5" s="0" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="17" t="n"/>
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="21" t="n"/>
+      <c r="K5" s="21" t="s"/>
+      <c r="L5" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="D6" s="14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F6" s="22" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="10" t="n"/>
+      <c r="J6" s="16" t="n"/>
+      <c r="K6" s="16" t="s"/>
+      <c r="L6" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="23" t="s"/>
+      <c r="B7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="D7" s="14" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="F7" s="22" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="s"/>
+      <c r="L7" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="24" t="s"/>
+      <c r="B8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D8" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="F8" s="25" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="16" t="n"/>
+      <c r="K8" s="16" t="s"/>
+      <c r="L8" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="F9" s="26" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="16" t="n"/>
+      <c r="K9" s="16" t="n"/>
+      <c r="L9" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="27" t="s"/>
+      <c r="B10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="10" t="n"/>
+      <c r="J10" s="16" t="n"/>
+      <c r="K10" s="16" t="n"/>
+      <c r="L10" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="28" t="s"/>
+      <c r="B11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F11" s="26" t="n"/>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="10" t="n"/>
+      <c r="J11" s="16" t="n"/>
+      <c r="K11" s="16" t="n"/>
+      <c r="L11" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="29" t="s"/>
+      <c r="B12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="16" t="n"/>
-      <c r="K4" s="16" t="s"/>
-      <c r="L4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18" t="n"/>
-      <c r="C5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="20" t="n"/>
-      <c r="E5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6" t="n"/>
-      <c r="K5" s="6" t="s"/>
-      <c r="L5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19.2343597412109" outlineLevel="0" r="6">
-      <c r="A6" s="22" t="s">
+      <c r="D12" s="14" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F12" s="26" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="16" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="F13" s="26" t="n"/>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="16" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="16" t="n"/>
+      <c r="K13" s="16" t="n"/>
+      <c r="L13" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="31" t="s"/>
+      <c r="B14" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C14" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="F14" s="26" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="16" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="32" t="s"/>
+      <c r="B15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="F15" s="26" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="16" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="33" t="s"/>
+      <c r="B16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>9.89</v>
+      </c>
+      <c r="F16" s="26" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="16" t="n"/>
+      <c r="K16" s="16" t="n"/>
+      <c r="L16" s="12" t="n"/>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="n">
-        <v>33.66</v>
-      </c>
-      <c r="E6" s="25" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F6" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="26" t="n"/>
-      <c r="I6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="27" t="s"/>
-      <c r="L6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="28" t="s"/>
-      <c r="B7" s="23" t="n">
+      <c r="D17" s="14" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F17" s="34" t="n"/>
+      <c r="G17" s="34" t="n"/>
+      <c r="H17" s="34" t="n"/>
+      <c r="I17" s="34" t="n"/>
+      <c r="J17" s="34" t="n"/>
+      <c r="K17" s="34" t="n"/>
+      <c r="L17" s="34" t="n"/>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="35" t="s"/>
+      <c r="B18" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C18" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="E7" s="25" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F7" t="n"/>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="26" t="n"/>
-      <c r="I7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="27" t="n"/>
-      <c r="K7" s="27" t="s"/>
-      <c r="L7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="29" t="s"/>
-      <c r="B8" s="23" t="n">
+      <c r="D18" s="14" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="36" t="s"/>
+      <c r="B19" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C19" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="24" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="E8" s="25" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F8" t="n"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="26" t="n"/>
-      <c r="I8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="30" t="s"/>
-      <c r="L8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="n">
+      <c r="D19" s="14" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E9" s="24" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F9" s="31" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="s"/>
-      <c r="L9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="32" t="s"/>
-      <c r="B10" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="24" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="E10" s="24" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="F10" s="31" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="s"/>
-      <c r="L10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="33" t="s"/>
-      <c r="B11" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="E11" s="24" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="F11" s="34" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6" t="n"/>
-      <c r="K11" s="6" t="s"/>
-      <c r="L11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24" t="n">
-        <v>29.05</v>
-      </c>
-      <c r="E12" s="24" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="6" t="n"/>
-      <c r="L12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="24" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="E13" s="24" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="6" t="n"/>
-      <c r="L13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="24" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E14" s="24" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="6" t="n"/>
-      <c r="K14" s="6" t="n"/>
-      <c r="L14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="35" t="s"/>
-      <c r="B15" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="24" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E15" s="24" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
-      <c r="I15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6" t="n"/>
-      <c r="K15" s="6" t="n"/>
-      <c r="L15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="E16" s="24" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="6" t="n"/>
-      <c r="H16" s="6" t="n"/>
-      <c r="I16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="6" t="n"/>
-      <c r="K16" s="6" t="n"/>
-      <c r="L16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="24" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="E17" s="24" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
-      <c r="I17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="6" t="n"/>
-      <c r="K17" s="6" t="n"/>
-      <c r="L17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="24" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="E18" s="24" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
-      <c r="I18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="6" t="n"/>
-      <c r="K18" s="6" t="n"/>
-      <c r="L18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E19" s="24" t="n">
-        <v>9.89</v>
-      </c>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="6" t="n"/>
-      <c r="I19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="6" t="n"/>
-      <c r="K19" s="6" t="n"/>
-      <c r="L19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="24" t="n">
-        <v>29.55</v>
-      </c>
-      <c r="E20" s="24" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F20" s="36" t="n"/>
-      <c r="G20" s="36" t="n"/>
-      <c r="H20" s="36" t="n"/>
-      <c r="I20" s="36" t="n"/>
-      <c r="J20" s="36" t="n"/>
-      <c r="K20" s="36" t="n"/>
-      <c r="L20" s="36" t="n"/>
+      <c r="D20" s="14" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>17.31</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="37" t="s"/>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="24" t="n">
-        <v>25.69</v>
-      </c>
-      <c r="E21" s="24" t="n">
-        <v>18.68</v>
+      <c r="D21" s="14" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>15.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="38" t="s"/>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D22" s="24" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="E22" s="24" t="n">
-        <v>12.89</v>
+      <c r="D22" s="14" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>10.39</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="23" t="n">
+      <c r="C23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="24" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="E23" s="24" t="n">
-        <v>17.31</v>
+      <c r="D23" s="14" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>18.71</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="39" t="s"/>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="24" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="E24" s="24" t="n">
-        <v>15.05</v>
+      <c r="D24" s="14" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>16.26</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="40" t="s"/>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="24" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="E25" s="24" t="n">
-        <v>10.39</v>
+      <c r="D25" s="14" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>11.22</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="B26" s="23" t="n">
+      <c r="A26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="41" t="s"/>
+      <c r="B27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="24" t="n"/>
-      <c r="E26" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="B27" s="23" t="n">
+      <c r="D27" s="14" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="42" t="s"/>
+      <c r="B28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C28" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D27" s="24" t="n"/>
-      <c r="E27" s="24" t="n"/>
-    </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="22" t="n"/>
-      <c r="B28" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C28" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24" t="n"/>
-      <c r="E28" s="24" t="n"/>
+      <c r="D28" s="14" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>9.27</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="41" t="s"/>
-      <c r="B29" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C29" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="24" t="n"/>
-      <c r="E29" s="24" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="14" t="n"/>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="42" t="s"/>
-      <c r="B30" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C30" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="24" t="n"/>
-      <c r="E30" s="24" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="14" t="n"/>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="22" t="n"/>
-      <c r="B31" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C31" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24" t="n"/>
-      <c r="E31" s="24" t="n"/>
+      <c r="D31" s="43" t="n"/>
+      <c r="E31" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="43" t="s"/>
-      <c r="B32" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C32" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="24" t="n"/>
-      <c r="E32" s="24" t="n"/>
+      <c r="D32" s="43" t="n"/>
+      <c r="E32" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="44" t="s"/>
-      <c r="B33" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C33" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="24" t="n"/>
-      <c r="E33" s="24" t="n"/>
+      <c r="D33" s="43" t="n"/>
+      <c r="E33" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="D34" s="45" t="n"/>
-      <c r="E34" s="45" t="n"/>
+      <c r="D34" s="43" t="n"/>
+      <c r="E34" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="D35" s="45" t="n"/>
-      <c r="E35" s="45" t="n"/>
+      <c r="D35" s="43" t="n"/>
+      <c r="E35" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="D36" s="45" t="n"/>
-      <c r="E36" s="45" t="n"/>
+      <c r="D36" s="43" t="n"/>
+      <c r="E36" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="D37" s="45" t="n"/>
-      <c r="E37" s="45" t="n"/>
+      <c r="D37" s="43" t="n"/>
+      <c r="E37" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="D38" s="45" t="n"/>
-      <c r="E38" s="45" t="n"/>
+      <c r="D38" s="43" t="n"/>
+      <c r="E38" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="D39" s="45" t="n"/>
-      <c r="E39" s="45" t="n"/>
+      <c r="D39" s="43" t="n"/>
+      <c r="E39" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="D40" s="45" t="n"/>
-      <c r="E40" s="45" t="n"/>
+      <c r="D40" s="43" t="n"/>
+      <c r="E40" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="D41" s="45" t="n"/>
-      <c r="E41" s="45" t="n"/>
+      <c r="D41" s="43" t="n"/>
+      <c r="E41" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="D42" s="45" t="n"/>
-      <c r="E42" s="45" t="n"/>
+      <c r="D42" s="43" t="n"/>
+      <c r="E42" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="D43" s="45" t="n"/>
-      <c r="E43" s="45" t="n"/>
+      <c r="D43" s="43" t="n"/>
+      <c r="E43" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="D44" s="45" t="n"/>
-      <c r="E44" s="45" t="n"/>
+      <c r="D44" s="43" t="n"/>
+      <c r="E44" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="D45" s="45" t="n"/>
-      <c r="E45" s="45" t="n"/>
+      <c r="D45" s="43" t="n"/>
+      <c r="E45" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="D46" s="45" t="n"/>
-      <c r="E46" s="45" t="n"/>
+      <c r="D46" s="43" t="n"/>
+      <c r="E46" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="D47" s="45" t="n"/>
-      <c r="E47" s="45" t="n"/>
+      <c r="D47" s="43" t="n"/>
+      <c r="E47" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="D48" s="45" t="n"/>
-      <c r="E48" s="45" t="n"/>
+      <c r="D48" s="43" t="n"/>
+      <c r="E48" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="D49" s="45" t="n"/>
-      <c r="E49" s="45" t="n"/>
+      <c r="D49" s="43" t="n"/>
+      <c r="E49" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="D50" s="45" t="n"/>
-      <c r="E50" s="45" t="n"/>
+      <c r="D50" s="43" t="n"/>
+      <c r="E50" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="D51" s="45" t="n"/>
-      <c r="E51" s="45" t="n"/>
+      <c r="D51" s="43" t="n"/>
+      <c r="E51" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="D52" s="45" t="n"/>
-      <c r="E52" s="45" t="n"/>
+      <c r="D52" s="43" t="n"/>
+      <c r="E52" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="D53" s="45" t="n"/>
-      <c r="E53" s="45" t="n"/>
+      <c r="D53" s="43" t="n"/>
+      <c r="E53" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="D54" s="45" t="n"/>
-      <c r="E54" s="45" t="n"/>
+      <c r="D54" s="43" t="n"/>
+      <c r="E54" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="D55" s="45" t="n"/>
-      <c r="E55" s="45" t="n"/>
+      <c r="D55" s="43" t="n"/>
+      <c r="E55" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="D56" s="45" t="n"/>
-      <c r="E56" s="45" t="n"/>
+      <c r="D56" s="43" t="n"/>
+      <c r="E56" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="D57" s="45" t="n"/>
-      <c r="E57" s="45" t="n"/>
+      <c r="D57" s="43" t="n"/>
+      <c r="E57" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="D58" s="45" t="n"/>
-      <c r="E58" s="45" t="n"/>
+      <c r="D58" s="43" t="n"/>
+      <c r="E58" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="D59" s="45" t="n"/>
-      <c r="E59" s="45" t="n"/>
+      <c r="D59" s="43" t="n"/>
+      <c r="E59" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="D60" s="45" t="n"/>
-      <c r="E60" s="45" t="n"/>
+      <c r="D60" s="43" t="n"/>
+      <c r="E60" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="D61" s="45" t="n"/>
-      <c r="E61" s="45" t="n"/>
+      <c r="D61" s="43" t="n"/>
+      <c r="E61" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="D62" s="45" t="n"/>
-      <c r="E62" s="45" t="n"/>
+      <c r="D62" s="43" t="n"/>
+      <c r="E62" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="D63" s="45" t="n"/>
-      <c r="E63" s="45" t="n"/>
+      <c r="D63" s="43" t="n"/>
+      <c r="E63" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="D64" s="45" t="n"/>
-      <c r="E64" s="45" t="n"/>
+      <c r="D64" s="43" t="n"/>
+      <c r="E64" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="D65" s="45" t="n"/>
-      <c r="E65" s="45" t="n"/>
+      <c r="D65" s="43" t="n"/>
+      <c r="E65" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="D66" s="45" t="n"/>
-      <c r="E66" s="45" t="n"/>
+      <c r="D66" s="43" t="n"/>
+      <c r="E66" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="D67" s="45" t="n"/>
-      <c r="E67" s="45" t="n"/>
+      <c r="D67" s="43" t="n"/>
+      <c r="E67" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="D68" s="45" t="n"/>
-      <c r="E68" s="45" t="n"/>
+      <c r="D68" s="43" t="n"/>
+      <c r="E68" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="D69" s="45" t="n"/>
-      <c r="E69" s="45" t="n"/>
+      <c r="D69" s="43" t="n"/>
+      <c r="E69" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="D70" s="45" t="n"/>
-      <c r="E70" s="45" t="n"/>
+      <c r="D70" s="43" t="n"/>
+      <c r="E70" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="D71" s="45" t="n"/>
-      <c r="E71" s="45" t="n"/>
+      <c r="D71" s="43" t="n"/>
+      <c r="E71" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="D72" s="45" t="n"/>
-      <c r="E72" s="45" t="n"/>
+      <c r="D72" s="43" t="n"/>
+      <c r="E72" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="D73" s="45" t="n"/>
-      <c r="E73" s="45" t="n"/>
+      <c r="D73" s="43" t="n"/>
+      <c r="E73" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="D74" s="45" t="n"/>
-      <c r="E74" s="45" t="n"/>
+      <c r="D74" s="43" t="n"/>
+      <c r="E74" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="D75" s="45" t="n"/>
-      <c r="E75" s="45" t="n"/>
+      <c r="D75" s="43" t="n"/>
+      <c r="E75" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="D76" s="45" t="n"/>
-      <c r="E76" s="45" t="n"/>
+      <c r="D76" s="43" t="n"/>
+      <c r="E76" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="D77" s="45" t="n"/>
-      <c r="E77" s="45" t="n"/>
+      <c r="D77" s="43" t="n"/>
+      <c r="E77" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="D78" s="45" t="n"/>
-      <c r="E78" s="45" t="n"/>
+      <c r="D78" s="43" t="n"/>
+      <c r="E78" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="D79" s="45" t="n"/>
-      <c r="E79" s="45" t="n"/>
+      <c r="D79" s="43" t="n"/>
+      <c r="E79" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="D80" s="45" t="n"/>
-      <c r="E80" s="45" t="n"/>
+      <c r="D80" s="43" t="n"/>
+      <c r="E80" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="D81" s="45" t="n"/>
-      <c r="E81" s="45" t="n"/>
+      <c r="D81" s="43" t="n"/>
+      <c r="E81" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="D82" s="45" t="n"/>
-      <c r="E82" s="45" t="n"/>
+      <c r="D82" s="43" t="n"/>
+      <c r="E82" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="D83" s="45" t="n"/>
-      <c r="E83" s="45" t="n"/>
+      <c r="D83" s="43" t="n"/>
+      <c r="E83" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="D84" s="45" t="n"/>
-      <c r="E84" s="45" t="n"/>
+      <c r="D84" s="43" t="n"/>
+      <c r="E84" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="D85" s="45" t="n"/>
-      <c r="E85" s="45" t="n"/>
+      <c r="D85" s="43" t="n"/>
+      <c r="E85" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="D86" s="45" t="n"/>
-      <c r="E86" s="45" t="n"/>
+      <c r="D86" s="43" t="n"/>
+      <c r="E86" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="D87" s="45" t="n"/>
-      <c r="E87" s="45" t="n"/>
+      <c r="D87" s="43" t="n"/>
+      <c r="E87" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="D88" s="45" t="n"/>
-      <c r="E88" s="45" t="n"/>
+      <c r="D88" s="43" t="n"/>
+      <c r="E88" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="D89" s="45" t="n"/>
-      <c r="E89" s="45" t="n"/>
+      <c r="D89" s="43" t="n"/>
+      <c r="E89" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="D90" s="45" t="n"/>
-      <c r="E90" s="45" t="n"/>
+      <c r="D90" s="43" t="n"/>
+      <c r="E90" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="D91" s="45" t="n"/>
-      <c r="E91" s="45" t="n"/>
+      <c r="D91" s="43" t="n"/>
+      <c r="E91" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="D92" s="45" t="n"/>
-      <c r="E92" s="45" t="n"/>
+      <c r="D92" s="43" t="n"/>
+      <c r="E92" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="93">
-      <c r="D93" s="45" t="n"/>
-      <c r="E93" s="45" t="n"/>
+      <c r="D93" s="43" t="n"/>
+      <c r="E93" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="94">
-      <c r="D94" s="45" t="n"/>
-      <c r="E94" s="45" t="n"/>
+      <c r="D94" s="43" t="n"/>
+      <c r="E94" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="95">
-      <c r="D95" s="45" t="n"/>
-      <c r="E95" s="45" t="n"/>
+      <c r="D95" s="43" t="n"/>
+      <c r="E95" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="96">
-      <c r="D96" s="45" t="n"/>
-      <c r="E96" s="45" t="n"/>
+      <c r="D96" s="43" t="n"/>
+      <c r="E96" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="97">
-      <c r="D97" s="45" t="n"/>
-      <c r="E97" s="45" t="n"/>
+      <c r="D97" s="43" t="n"/>
+      <c r="E97" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="98">
-      <c r="D98" s="45" t="n"/>
-      <c r="E98" s="45" t="n"/>
+      <c r="D98" s="43" t="n"/>
+      <c r="E98" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="99">
-      <c r="D99" s="45" t="n"/>
-      <c r="E99" s="45" t="n"/>
+      <c r="D99" s="43" t="n"/>
+      <c r="E99" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="100">
-      <c r="D100" s="45" t="n"/>
-      <c r="E100" s="45" t="n"/>
+      <c r="D100" s="43" t="n"/>
+      <c r="E100" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="D101" s="45" t="n"/>
-      <c r="E101" s="45" t="n"/>
+      <c r="D101" s="43" t="n"/>
+      <c r="E101" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="102">
-      <c r="D102" s="45" t="n"/>
-      <c r="E102" s="45" t="n"/>
+      <c r="D102" s="43" t="n"/>
+      <c r="E102" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="103">
-      <c r="D103" s="45" t="n"/>
-      <c r="E103" s="45" t="n"/>
+      <c r="D103" s="43" t="n"/>
+      <c r="E103" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="104">
-      <c r="D104" s="45" t="n"/>
-      <c r="E104" s="45" t="n"/>
+      <c r="D104" s="43" t="n"/>
+      <c r="E104" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="105">
-      <c r="D105" s="45" t="n"/>
-      <c r="E105" s="45" t="n"/>
+      <c r="D105" s="43" t="n"/>
+      <c r="E105" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="106">
-      <c r="D106" s="45" t="n"/>
-      <c r="E106" s="45" t="n"/>
+      <c r="D106" s="43" t="n"/>
+      <c r="E106" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="107">
-      <c r="D107" s="45" t="n"/>
-      <c r="E107" s="45" t="n"/>
+      <c r="D107" s="43" t="n"/>
+      <c r="E107" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="108">
-      <c r="D108" s="45" t="n"/>
-      <c r="E108" s="45" t="n"/>
+      <c r="D108" s="43" t="n"/>
+      <c r="E108" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="109">
-      <c r="D109" s="45" t="n"/>
-      <c r="E109" s="45" t="n"/>
+      <c r="D109" s="43" t="n"/>
+      <c r="E109" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="110">
-      <c r="D110" s="45" t="n"/>
-      <c r="E110" s="45" t="n"/>
+      <c r="D110" s="43" t="n"/>
+      <c r="E110" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="111">
-      <c r="D111" s="45" t="n"/>
-      <c r="E111" s="45" t="n"/>
+      <c r="D111" s="43" t="n"/>
+      <c r="E111" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="112">
-      <c r="D112" s="45" t="n"/>
-      <c r="E112" s="45" t="n"/>
+      <c r="D112" s="43" t="n"/>
+      <c r="E112" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="113">
-      <c r="D113" s="45" t="n"/>
-      <c r="E113" s="45" t="n"/>
+      <c r="D113" s="43" t="n"/>
+      <c r="E113" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="114">
-      <c r="D114" s="45" t="n"/>
-      <c r="E114" s="45" t="n"/>
+      <c r="D114" s="43" t="n"/>
+      <c r="E114" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="115">
-      <c r="D115" s="45" t="n"/>
-      <c r="E115" s="45" t="n"/>
+      <c r="D115" s="43" t="n"/>
+      <c r="E115" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="116">
-      <c r="D116" s="45" t="n"/>
-      <c r="E116" s="45" t="n"/>
+      <c r="D116" s="43" t="n"/>
+      <c r="E116" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="117">
-      <c r="D117" s="45" t="n"/>
-      <c r="E117" s="45" t="n"/>
+      <c r="D117" s="43" t="n"/>
+      <c r="E117" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="118">
-      <c r="D118" s="45" t="n"/>
-      <c r="E118" s="45" t="n"/>
+      <c r="D118" s="43" t="n"/>
+      <c r="E118" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="119">
-      <c r="D119" s="45" t="n"/>
-      <c r="E119" s="45" t="n"/>
+      <c r="D119" s="43" t="n"/>
+      <c r="E119" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="120">
-      <c r="D120" s="45" t="n"/>
-      <c r="E120" s="45" t="n"/>
+      <c r="D120" s="43" t="n"/>
+      <c r="E120" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="121">
-      <c r="D121" s="45" t="n"/>
-      <c r="E121" s="45" t="n"/>
+      <c r="D121" s="43" t="n"/>
+      <c r="E121" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="122">
-      <c r="D122" s="45" t="n"/>
-      <c r="E122" s="45" t="n"/>
+      <c r="D122" s="43" t="n"/>
+      <c r="E122" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="123">
-      <c r="D123" s="45" t="n"/>
-      <c r="E123" s="45" t="n"/>
+      <c r="D123" s="43" t="n"/>
+      <c r="E123" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="124">
-      <c r="D124" s="45" t="n"/>
-      <c r="E124" s="45" t="n"/>
+      <c r="D124" s="43" t="n"/>
+      <c r="E124" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="125">
-      <c r="D125" s="45" t="n"/>
-      <c r="E125" s="45" t="n"/>
+      <c r="D125" s="43" t="n"/>
+      <c r="E125" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="126">
-      <c r="D126" s="45" t="n"/>
-      <c r="E126" s="45" t="n"/>
+      <c r="D126" s="43" t="n"/>
+      <c r="E126" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="127">
-      <c r="D127" s="45" t="n"/>
-      <c r="E127" s="45" t="n"/>
+      <c r="D127" s="43" t="n"/>
+      <c r="E127" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="128">
-      <c r="D128" s="45" t="n"/>
-      <c r="E128" s="45" t="n"/>
+      <c r="D128" s="43" t="n"/>
+      <c r="E128" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="129">
-      <c r="D129" s="45" t="n"/>
-      <c r="E129" s="45" t="n"/>
+      <c r="D129" s="43" t="n"/>
+      <c r="E129" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="130">
-      <c r="D130" s="45" t="n"/>
-      <c r="E130" s="45" t="n"/>
+      <c r="D130" s="43" t="n"/>
+      <c r="E130" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="131">
-      <c r="D131" s="45" t="n"/>
-      <c r="E131" s="45" t="n"/>
+      <c r="D131" s="43" t="n"/>
+      <c r="E131" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="132">
-      <c r="D132" s="45" t="n"/>
-      <c r="E132" s="45" t="n"/>
+      <c r="D132" s="43" t="n"/>
+      <c r="E132" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="133">
-      <c r="D133" s="45" t="n"/>
-      <c r="E133" s="45" t="n"/>
+      <c r="D133" s="43" t="n"/>
+      <c r="E133" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="134">
-      <c r="D134" s="45" t="n"/>
-      <c r="E134" s="45" t="n"/>
+      <c r="D134" s="43" t="n"/>
+      <c r="E134" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="135">
-      <c r="D135" s="45" t="n"/>
-      <c r="E135" s="45" t="n"/>
+      <c r="D135" s="43" t="n"/>
+      <c r="E135" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="136">
-      <c r="D136" s="45" t="n"/>
-      <c r="E136" s="45" t="n"/>
+      <c r="D136" s="43" t="n"/>
+      <c r="E136" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="137">
-      <c r="D137" s="45" t="n"/>
-      <c r="E137" s="45" t="n"/>
+      <c r="D137" s="43" t="n"/>
+      <c r="E137" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="138">
-      <c r="D138" s="45" t="n"/>
-      <c r="E138" s="45" t="n"/>
+      <c r="D138" s="43" t="n"/>
+      <c r="E138" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="139">
-      <c r="D139" s="45" t="n"/>
-      <c r="E139" s="45" t="n"/>
+      <c r="D139" s="43" t="n"/>
+      <c r="E139" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="140">
-      <c r="D140" s="45" t="n"/>
-      <c r="E140" s="45" t="n"/>
+      <c r="D140" s="43" t="n"/>
+      <c r="E140" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="141">
-      <c r="D141" s="45" t="n"/>
-      <c r="E141" s="45" t="n"/>
+      <c r="D141" s="43" t="n"/>
+      <c r="E141" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="142">
-      <c r="D142" s="45" t="n"/>
-      <c r="E142" s="45" t="n"/>
+      <c r="D142" s="43" t="n"/>
+      <c r="E142" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="143">
-      <c r="D143" s="45" t="n"/>
-      <c r="E143" s="45" t="n"/>
+      <c r="D143" s="43" t="n"/>
+      <c r="E143" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="144">
-      <c r="D144" s="45" t="n"/>
-      <c r="E144" s="45" t="n"/>
+      <c r="D144" s="43" t="n"/>
+      <c r="E144" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="145">
-      <c r="D145" s="45" t="n"/>
-      <c r="E145" s="45" t="n"/>
+      <c r="D145" s="43" t="n"/>
+      <c r="E145" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="146">
-      <c r="D146" s="45" t="n"/>
-      <c r="E146" s="45" t="n"/>
+      <c r="D146" s="43" t="n"/>
+      <c r="E146" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="147">
-      <c r="D147" s="45" t="n"/>
-      <c r="E147" s="45" t="n"/>
+      <c r="D147" s="43" t="n"/>
+      <c r="E147" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="148">
-      <c r="D148" s="45" t="n"/>
-      <c r="E148" s="45" t="n"/>
+      <c r="D148" s="43" t="n"/>
+      <c r="E148" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="149">
-      <c r="D149" s="45" t="n"/>
-      <c r="E149" s="45" t="n"/>
+      <c r="D149" s="43" t="n"/>
+      <c r="E149" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="150">
-      <c r="D150" s="45" t="n"/>
-      <c r="E150" s="45" t="n"/>
+      <c r="D150" s="43" t="n"/>
+      <c r="E150" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="151">
-      <c r="D151" s="45" t="n"/>
-      <c r="E151" s="45" t="n"/>
+      <c r="D151" s="43" t="n"/>
+      <c r="E151" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="152">
-      <c r="D152" s="45" t="n"/>
-      <c r="E152" s="45" t="n"/>
+      <c r="D152" s="43" t="n"/>
+      <c r="E152" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="153">
-      <c r="D153" s="45" t="n"/>
-      <c r="E153" s="45" t="n"/>
+      <c r="D153" s="43" t="n"/>
+      <c r="E153" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="154">
-      <c r="D154" s="45" t="n"/>
-      <c r="E154" s="45" t="n"/>
+      <c r="D154" s="43" t="n"/>
+      <c r="E154" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="155">
-      <c r="D155" s="45" t="n"/>
-      <c r="E155" s="45" t="n"/>
+      <c r="D155" s="43" t="n"/>
+      <c r="E155" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="156">
-      <c r="D156" s="45" t="n"/>
-      <c r="E156" s="45" t="n"/>
+      <c r="D156" s="43" t="n"/>
+      <c r="E156" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="157">
-      <c r="D157" s="45" t="n"/>
-      <c r="E157" s="45" t="n"/>
+      <c r="D157" s="43" t="n"/>
+      <c r="E157" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="158">
-      <c r="D158" s="45" t="n"/>
-      <c r="E158" s="45" t="n"/>
+      <c r="D158" s="43" t="n"/>
+      <c r="E158" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="159">
-      <c r="D159" s="45" t="n"/>
-      <c r="E159" s="45" t="n"/>
+      <c r="D159" s="43" t="n"/>
+      <c r="E159" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="160">
-      <c r="D160" s="45" t="n"/>
-      <c r="E160" s="45" t="n"/>
+      <c r="D160" s="43" t="n"/>
+      <c r="E160" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="161">
-      <c r="D161" s="45" t="n"/>
-      <c r="E161" s="45" t="n"/>
+      <c r="D161" s="43" t="n"/>
+      <c r="E161" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="162">
-      <c r="D162" s="45" t="n"/>
-      <c r="E162" s="45" t="n"/>
+      <c r="D162" s="43" t="n"/>
+      <c r="E162" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="163">
-      <c r="D163" s="45" t="n"/>
-      <c r="E163" s="45" t="n"/>
+      <c r="D163" s="43" t="n"/>
+      <c r="E163" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="164">
-      <c r="D164" s="45" t="n"/>
-      <c r="E164" s="45" t="n"/>
+      <c r="D164" s="43" t="n"/>
+      <c r="E164" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="165">
-      <c r="D165" s="45" t="n"/>
-      <c r="E165" s="45" t="n"/>
+      <c r="D165" s="43" t="n"/>
+      <c r="E165" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="166">
-      <c r="D166" s="45" t="n"/>
-      <c r="E166" s="45" t="n"/>
+      <c r="D166" s="43" t="n"/>
+      <c r="E166" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="167">
-      <c r="D167" s="45" t="n"/>
-      <c r="E167" s="45" t="n"/>
+      <c r="D167" s="43" t="n"/>
+      <c r="E167" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="168">
-      <c r="D168" s="45" t="n"/>
-      <c r="E168" s="45" t="n"/>
+      <c r="D168" s="43" t="n"/>
+      <c r="E168" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="169">
-      <c r="D169" s="45" t="n"/>
-      <c r="E169" s="45" t="n"/>
+      <c r="D169" s="43" t="n"/>
+      <c r="E169" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="170">
-      <c r="D170" s="45" t="n"/>
-      <c r="E170" s="45" t="n"/>
+      <c r="D170" s="43" t="n"/>
+      <c r="E170" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="171">
-      <c r="D171" s="45" t="n"/>
-      <c r="E171" s="45" t="n"/>
+      <c r="D171" s="43" t="n"/>
+      <c r="E171" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="172">
-      <c r="D172" s="45" t="n"/>
-      <c r="E172" s="45" t="n"/>
+      <c r="D172" s="43" t="n"/>
+      <c r="E172" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="173">
-      <c r="D173" s="45" t="n"/>
-      <c r="E173" s="45" t="n"/>
+      <c r="D173" s="43" t="n"/>
+      <c r="E173" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="174">
-      <c r="D174" s="45" t="n"/>
-      <c r="E174" s="45" t="n"/>
+      <c r="D174" s="43" t="n"/>
+      <c r="E174" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="175">
-      <c r="D175" s="45" t="n"/>
-      <c r="E175" s="45" t="n"/>
+      <c r="D175" s="43" t="n"/>
+      <c r="E175" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="176">
-      <c r="D176" s="45" t="n"/>
-      <c r="E176" s="45" t="n"/>
+      <c r="D176" s="43" t="n"/>
+      <c r="E176" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="177">
-      <c r="D177" s="45" t="n"/>
-      <c r="E177" s="45" t="n"/>
+      <c r="D177" s="43" t="n"/>
+      <c r="E177" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="178">
-      <c r="D178" s="45" t="n"/>
-      <c r="E178" s="45" t="n"/>
+      <c r="D178" s="43" t="n"/>
+      <c r="E178" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="179">
-      <c r="D179" s="45" t="n"/>
-      <c r="E179" s="45" t="n"/>
+      <c r="D179" s="43" t="n"/>
+      <c r="E179" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="180">
-      <c r="D180" s="45" t="n"/>
-      <c r="E180" s="45" t="n"/>
+      <c r="D180" s="43" t="n"/>
+      <c r="E180" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="181">
-      <c r="D181" s="45" t="n"/>
-      <c r="E181" s="45" t="n"/>
+      <c r="D181" s="43" t="n"/>
+      <c r="E181" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="182">
-      <c r="D182" s="45" t="n"/>
-      <c r="E182" s="45" t="n"/>
+      <c r="D182" s="43" t="n"/>
+      <c r="E182" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="183">
-      <c r="D183" s="45" t="n"/>
-      <c r="E183" s="45" t="n"/>
+      <c r="D183" s="43" t="n"/>
+      <c r="E183" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="184">
-      <c r="D184" s="45" t="n"/>
-      <c r="E184" s="45" t="n"/>
+      <c r="D184" s="43" t="n"/>
+      <c r="E184" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="185">
-      <c r="D185" s="45" t="n"/>
-      <c r="E185" s="45" t="n"/>
+      <c r="D185" s="43" t="n"/>
+      <c r="E185" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="186">
-      <c r="D186" s="45" t="n"/>
-      <c r="E186" s="45" t="n"/>
+      <c r="D186" s="43" t="n"/>
+      <c r="E186" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="187">
-      <c r="D187" s="45" t="n"/>
-      <c r="E187" s="45" t="n"/>
+      <c r="D187" s="43" t="n"/>
+      <c r="E187" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="188">
-      <c r="D188" s="45" t="n"/>
-      <c r="E188" s="45" t="n"/>
+      <c r="D188" s="43" t="n"/>
+      <c r="E188" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="189">
-      <c r="D189" s="45" t="n"/>
-      <c r="E189" s="45" t="n"/>
+      <c r="D189" s="43" t="n"/>
+      <c r="E189" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="190">
-      <c r="D190" s="45" t="n"/>
-      <c r="E190" s="45" t="n"/>
+      <c r="D190" s="43" t="n"/>
+      <c r="E190" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="191">
-      <c r="D191" s="45" t="n"/>
-      <c r="E191" s="45" t="n"/>
+      <c r="D191" s="43" t="n"/>
+      <c r="E191" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="192">
-      <c r="D192" s="45" t="n"/>
-      <c r="E192" s="45" t="n"/>
+      <c r="D192" s="43" t="n"/>
+      <c r="E192" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="193">
-      <c r="D193" s="45" t="n"/>
-      <c r="E193" s="45" t="n"/>
+      <c r="D193" s="43" t="n"/>
+      <c r="E193" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="194">
-      <c r="D194" s="45" t="n"/>
-      <c r="E194" s="45" t="n"/>
+      <c r="D194" s="43" t="n"/>
+      <c r="E194" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="195">
-      <c r="D195" s="45" t="n"/>
-      <c r="E195" s="45" t="n"/>
+      <c r="D195" s="43" t="n"/>
+      <c r="E195" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="196">
-      <c r="D196" s="45" t="n"/>
-      <c r="E196" s="45" t="n"/>
+      <c r="D196" s="43" t="n"/>
+      <c r="E196" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="197">
-      <c r="D197" s="45" t="n"/>
-      <c r="E197" s="45" t="n"/>
+      <c r="D197" s="43" t="n"/>
+      <c r="E197" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="198">
-      <c r="D198" s="45" t="n"/>
-      <c r="E198" s="45" t="n"/>
+      <c r="D198" s="43" t="n"/>
+      <c r="E198" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="199">
-      <c r="D199" s="45" t="n"/>
-      <c r="E199" s="45" t="n"/>
+      <c r="D199" s="43" t="n"/>
+      <c r="E199" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="200">
-      <c r="D200" s="45" t="n"/>
-      <c r="E200" s="45" t="n"/>
+      <c r="D200" s="43" t="n"/>
+      <c r="E200" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="201">
-      <c r="D201" s="45" t="n"/>
-      <c r="E201" s="45" t="n"/>
+      <c r="D201" s="43" t="n"/>
+      <c r="E201" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="202">
-      <c r="D202" s="45" t="n"/>
-      <c r="E202" s="45" t="n"/>
+      <c r="D202" s="43" t="n"/>
+      <c r="E202" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="203">
-      <c r="D203" s="45" t="n"/>
-      <c r="E203" s="45" t="n"/>
+      <c r="D203" s="43" t="n"/>
+      <c r="E203" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="204">
-      <c r="D204" s="45" t="n"/>
-      <c r="E204" s="45" t="n"/>
+      <c r="D204" s="43" t="n"/>
+      <c r="E204" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="205">
-      <c r="D205" s="45" t="n"/>
-      <c r="E205" s="45" t="n"/>
+      <c r="D205" s="43" t="n"/>
+      <c r="E205" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="206">
-      <c r="D206" s="45" t="n"/>
-      <c r="E206" s="45" t="n"/>
+      <c r="D206" s="43" t="n"/>
+      <c r="E206" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="207">
-      <c r="D207" s="45" t="n"/>
-      <c r="E207" s="45" t="n"/>
+      <c r="D207" s="43" t="n"/>
+      <c r="E207" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="208">
-      <c r="D208" s="45" t="n"/>
-      <c r="E208" s="45" t="n"/>
+      <c r="D208" s="43" t="n"/>
+      <c r="E208" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="209">
-      <c r="D209" s="45" t="n"/>
-      <c r="E209" s="45" t="n"/>
+      <c r="D209" s="43" t="n"/>
+      <c r="E209" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="210">
-      <c r="D210" s="45" t="n"/>
-      <c r="E210" s="45" t="n"/>
+      <c r="D210" s="43" t="n"/>
+      <c r="E210" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="211">
-      <c r="D211" s="45" t="n"/>
-      <c r="E211" s="45" t="n"/>
+      <c r="D211" s="43" t="n"/>
+      <c r="E211" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="212">
-      <c r="D212" s="45" t="n"/>
-      <c r="E212" s="45" t="n"/>
+      <c r="D212" s="43" t="n"/>
+      <c r="E212" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="213">
-      <c r="D213" s="45" t="n"/>
-      <c r="E213" s="45" t="n"/>
+      <c r="D213" s="43" t="n"/>
+      <c r="E213" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="214">
-      <c r="D214" s="45" t="n"/>
-      <c r="E214" s="45" t="n"/>
+      <c r="D214" s="43" t="n"/>
+      <c r="E214" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="215">
-      <c r="D215" s="45" t="n"/>
-      <c r="E215" s="45" t="n"/>
+      <c r="D215" s="43" t="n"/>
+      <c r="E215" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="216">
-      <c r="D216" s="45" t="n"/>
-      <c r="E216" s="45" t="n"/>
+      <c r="D216" s="43" t="n"/>
+      <c r="E216" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="217">
-      <c r="D217" s="45" t="n"/>
-      <c r="E217" s="45" t="n"/>
+      <c r="D217" s="43" t="n"/>
+      <c r="E217" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="218">
-      <c r="D218" s="45" t="n"/>
-      <c r="E218" s="45" t="n"/>
+      <c r="D218" s="43" t="n"/>
+      <c r="E218" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="219">
-      <c r="D219" s="45" t="n"/>
-      <c r="E219" s="45" t="n"/>
+      <c r="D219" s="43" t="n"/>
+      <c r="E219" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="220">
-      <c r="D220" s="45" t="n"/>
-      <c r="E220" s="45" t="n"/>
+      <c r="D220" s="43" t="n"/>
+      <c r="E220" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="221">
-      <c r="D221" s="45" t="n"/>
-      <c r="E221" s="45" t="n"/>
+      <c r="D221" s="43" t="n"/>
+      <c r="E221" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="222">
-      <c r="D222" s="45" t="n"/>
-      <c r="E222" s="45" t="n"/>
+      <c r="D222" s="43" t="n"/>
+      <c r="E222" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="223">
-      <c r="D223" s="45" t="n"/>
-      <c r="E223" s="45" t="n"/>
+      <c r="D223" s="43" t="n"/>
+      <c r="E223" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="224">
-      <c r="D224" s="45" t="n"/>
-      <c r="E224" s="45" t="n"/>
+      <c r="D224" s="43" t="n"/>
+      <c r="E224" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="225">
-      <c r="D225" s="45" t="n"/>
-      <c r="E225" s="45" t="n"/>
+      <c r="D225" s="43" t="n"/>
+      <c r="E225" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="226">
-      <c r="D226" s="45" t="n"/>
-      <c r="E226" s="45" t="n"/>
+      <c r="D226" s="43" t="n"/>
+      <c r="E226" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="227">
-      <c r="D227" s="45" t="n"/>
-      <c r="E227" s="45" t="n"/>
+      <c r="D227" s="43" t="n"/>
+      <c r="E227" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="228">
-      <c r="D228" s="45" t="n"/>
-      <c r="E228" s="45" t="n"/>
+      <c r="D228" s="43" t="n"/>
+      <c r="E228" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="229">
-      <c r="D229" s="45" t="n"/>
-      <c r="E229" s="45" t="n"/>
+      <c r="D229" s="43" t="n"/>
+      <c r="E229" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="230">
-      <c r="D230" s="45" t="n"/>
-      <c r="E230" s="45" t="n"/>
+      <c r="D230" s="43" t="n"/>
+      <c r="E230" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="231">
-      <c r="D231" s="45" t="n"/>
-      <c r="E231" s="45" t="n"/>
+      <c r="D231" s="43" t="n"/>
+      <c r="E231" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="232">
-      <c r="D232" s="45" t="n"/>
-      <c r="E232" s="45" t="n"/>
+      <c r="D232" s="43" t="n"/>
+      <c r="E232" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="233">
-      <c r="D233" s="45" t="n"/>
-      <c r="E233" s="45" t="n"/>
+      <c r="D233" s="43" t="n"/>
+      <c r="E233" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="234">
-      <c r="D234" s="45" t="n"/>
-      <c r="E234" s="45" t="n"/>
+      <c r="D234" s="43" t="n"/>
+      <c r="E234" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="235">
-      <c r="D235" s="45" t="n"/>
-      <c r="E235" s="45" t="n"/>
+      <c r="D235" s="43" t="n"/>
+      <c r="E235" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="236">
-      <c r="D236" s="45" t="n"/>
-      <c r="E236" s="45" t="n"/>
+      <c r="D236" s="43" t="n"/>
+      <c r="E236" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="237">
-      <c r="D237" s="45" t="n"/>
-      <c r="E237" s="45" t="n"/>
+      <c r="D237" s="43" t="n"/>
+      <c r="E237" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="238">
-      <c r="D238" s="45" t="n"/>
-      <c r="E238" s="45" t="n"/>
+      <c r="D238" s="43" t="n"/>
+      <c r="E238" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="239">
-      <c r="D239" s="45" t="n"/>
-      <c r="E239" s="45" t="n"/>
+      <c r="D239" s="43" t="n"/>
+      <c r="E239" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="240">
-      <c r="D240" s="45" t="n"/>
-      <c r="E240" s="45" t="n"/>
+      <c r="D240" s="43" t="n"/>
+      <c r="E240" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="241">
-      <c r="D241" s="45" t="n"/>
-      <c r="E241" s="45" t="n"/>
+      <c r="D241" s="43" t="n"/>
+      <c r="E241" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="242">
-      <c r="D242" s="45" t="n"/>
-      <c r="E242" s="45" t="n"/>
+      <c r="D242" s="43" t="n"/>
+      <c r="E242" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="243">
-      <c r="D243" s="45" t="n"/>
-      <c r="E243" s="45" t="n"/>
+      <c r="D243" s="43" t="n"/>
+      <c r="E243" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="244">
-      <c r="D244" s="45" t="n"/>
-      <c r="E244" s="45" t="n"/>
+      <c r="D244" s="43" t="n"/>
+      <c r="E244" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="245">
-      <c r="D245" s="45" t="n"/>
-      <c r="E245" s="45" t="n"/>
+      <c r="D245" s="43" t="n"/>
+      <c r="E245" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="246">
-      <c r="D246" s="45" t="n"/>
-      <c r="E246" s="45" t="n"/>
+      <c r="D246" s="43" t="n"/>
+      <c r="E246" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="247">
-      <c r="D247" s="45" t="n"/>
-      <c r="E247" s="45" t="n"/>
+      <c r="D247" s="43" t="n"/>
+      <c r="E247" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="248">
-      <c r="D248" s="45" t="n"/>
-      <c r="E248" s="45" t="n"/>
+      <c r="D248" s="43" t="n"/>
+      <c r="E248" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="249">
-      <c r="D249" s="45" t="n"/>
-      <c r="E249" s="45" t="n"/>
+      <c r="D249" s="43" t="n"/>
+      <c r="E249" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="250">
-      <c r="D250" s="45" t="n"/>
-      <c r="E250" s="45" t="n"/>
+      <c r="D250" s="43" t="n"/>
+      <c r="E250" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="251">
-      <c r="D251" s="45" t="n"/>
-      <c r="E251" s="45" t="n"/>
+      <c r="D251" s="43" t="n"/>
+      <c r="E251" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="252">
-      <c r="D252" s="45" t="n"/>
-      <c r="E252" s="45" t="n"/>
+      <c r="D252" s="43" t="n"/>
+      <c r="E252" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="253">
-      <c r="D253" s="45" t="n"/>
-      <c r="E253" s="45" t="n"/>
+      <c r="D253" s="43" t="n"/>
+      <c r="E253" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="254">
-      <c r="D254" s="45" t="n"/>
-      <c r="E254" s="45" t="n"/>
+      <c r="D254" s="43" t="n"/>
+      <c r="E254" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="255">
-      <c r="D255" s="45" t="n"/>
-      <c r="E255" s="45" t="n"/>
+      <c r="D255" s="43" t="n"/>
+      <c r="E255" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="256">
-      <c r="D256" s="45" t="n"/>
-      <c r="E256" s="45" t="n"/>
+      <c r="D256" s="43" t="n"/>
+      <c r="E256" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="257">
-      <c r="D257" s="45" t="n"/>
-      <c r="E257" s="45" t="n"/>
+      <c r="D257" s="43" t="n"/>
+      <c r="E257" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="258">
-      <c r="D258" s="45" t="n"/>
-      <c r="E258" s="45" t="n"/>
+      <c r="D258" s="43" t="n"/>
+      <c r="E258" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="259">
-      <c r="D259" s="45" t="n"/>
-      <c r="E259" s="45" t="n"/>
+      <c r="D259" s="43" t="n"/>
+      <c r="E259" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="260">
-      <c r="D260" s="45" t="n"/>
-      <c r="E260" s="45" t="n"/>
+      <c r="D260" s="43" t="n"/>
+      <c r="E260" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="261">
-      <c r="D261" s="45" t="n"/>
-      <c r="E261" s="45" t="n"/>
+      <c r="D261" s="43" t="n"/>
+      <c r="E261" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="262">
-      <c r="D262" s="45" t="n"/>
-      <c r="E262" s="45" t="n"/>
+      <c r="D262" s="43" t="n"/>
+      <c r="E262" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="263">
-      <c r="D263" s="45" t="n"/>
-      <c r="E263" s="45" t="n"/>
+      <c r="D263" s="43" t="n"/>
+      <c r="E263" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="264">
-      <c r="D264" s="45" t="n"/>
-      <c r="E264" s="45" t="n"/>
+      <c r="D264" s="43" t="n"/>
+      <c r="E264" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="265">
-      <c r="D265" s="45" t="n"/>
-      <c r="E265" s="45" t="n"/>
+      <c r="D265" s="43" t="n"/>
+      <c r="E265" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="266">
-      <c r="D266" s="45" t="n"/>
-      <c r="E266" s="45" t="n"/>
+      <c r="D266" s="43" t="n"/>
+      <c r="E266" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="267">
-      <c r="D267" s="45" t="n"/>
-      <c r="E267" s="45" t="n"/>
+      <c r="D267" s="43" t="n"/>
+      <c r="E267" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="268">
-      <c r="D268" s="45" t="n"/>
-      <c r="E268" s="45" t="n"/>
+      <c r="D268" s="43" t="n"/>
+      <c r="E268" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="269">
-      <c r="D269" s="45" t="n"/>
-      <c r="E269" s="45" t="n"/>
+      <c r="D269" s="43" t="n"/>
+      <c r="E269" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="270">
-      <c r="D270" s="45" t="n"/>
-      <c r="E270" s="45" t="n"/>
+      <c r="D270" s="43" t="n"/>
+      <c r="E270" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="271">
-      <c r="D271" s="45" t="n"/>
-      <c r="E271" s="45" t="n"/>
+      <c r="D271" s="43" t="n"/>
+      <c r="E271" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="272">
-      <c r="D272" s="45" t="n"/>
-      <c r="E272" s="45" t="n"/>
+      <c r="D272" s="43" t="n"/>
+      <c r="E272" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="273">
-      <c r="D273" s="45" t="n"/>
-      <c r="E273" s="45" t="n"/>
+      <c r="D273" s="43" t="n"/>
+      <c r="E273" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="274">
-      <c r="D274" s="45" t="n"/>
-      <c r="E274" s="45" t="n"/>
+      <c r="D274" s="43" t="n"/>
+      <c r="E274" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="275">
-      <c r="D275" s="45" t="n"/>
-      <c r="E275" s="45" t="n"/>
+      <c r="D275" s="43" t="n"/>
+      <c r="E275" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="276">
-      <c r="D276" s="45" t="n"/>
-      <c r="E276" s="45" t="n"/>
+      <c r="D276" s="43" t="n"/>
+      <c r="E276" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="277">
-      <c r="D277" s="45" t="n"/>
-      <c r="E277" s="45" t="n"/>
+      <c r="D277" s="43" t="n"/>
+      <c r="E277" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="278">
-      <c r="D278" s="45" t="n"/>
-      <c r="E278" s="45" t="n"/>
+      <c r="D278" s="43" t="n"/>
+      <c r="E278" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="279">
-      <c r="D279" s="45" t="n"/>
-      <c r="E279" s="45" t="n"/>
+      <c r="D279" s="43" t="n"/>
+      <c r="E279" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="280">
-      <c r="D280" s="45" t="n"/>
-      <c r="E280" s="45" t="n"/>
+      <c r="D280" s="43" t="n"/>
+      <c r="E280" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="281">
-      <c r="D281" s="45" t="n"/>
-      <c r="E281" s="45" t="n"/>
+      <c r="D281" s="43" t="n"/>
+      <c r="E281" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="282">
-      <c r="D282" s="45" t="n"/>
-      <c r="E282" s="45" t="n"/>
+      <c r="D282" s="43" t="n"/>
+      <c r="E282" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="283">
-      <c r="D283" s="45" t="n"/>
-      <c r="E283" s="45" t="n"/>
+      <c r="D283" s="43" t="n"/>
+      <c r="E283" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="284">
-      <c r="D284" s="45" t="n"/>
-      <c r="E284" s="45" t="n"/>
+      <c r="D284" s="43" t="n"/>
+      <c r="E284" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="285">
-      <c r="D285" s="45" t="n"/>
-      <c r="E285" s="45" t="n"/>
+      <c r="D285" s="43" t="n"/>
+      <c r="E285" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="286">
-      <c r="D286" s="45" t="n"/>
-      <c r="E286" s="45" t="n"/>
+      <c r="D286" s="43" t="n"/>
+      <c r="E286" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="287">
-      <c r="D287" s="45" t="n"/>
-      <c r="E287" s="45" t="n"/>
+      <c r="D287" s="43" t="n"/>
+      <c r="E287" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="288">
-      <c r="D288" s="45" t="n"/>
-      <c r="E288" s="45" t="n"/>
+      <c r="D288" s="43" t="n"/>
+      <c r="E288" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="289">
-      <c r="D289" s="45" t="n"/>
-      <c r="E289" s="45" t="n"/>
+      <c r="D289" s="43" t="n"/>
+      <c r="E289" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="290">
-      <c r="D290" s="45" t="n"/>
-      <c r="E290" s="45" t="n"/>
+      <c r="D290" s="43" t="n"/>
+      <c r="E290" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="291">
-      <c r="D291" s="45" t="n"/>
-      <c r="E291" s="45" t="n"/>
+      <c r="D291" s="43" t="n"/>
+      <c r="E291" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="292">
-      <c r="D292" s="45" t="n"/>
-      <c r="E292" s="45" t="n"/>
+      <c r="D292" s="43" t="n"/>
+      <c r="E292" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="293">
-      <c r="D293" s="45" t="n"/>
-      <c r="E293" s="45" t="n"/>
+      <c r="D293" s="43" t="n"/>
+      <c r="E293" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="294">
-      <c r="D294" s="45" t="n"/>
-      <c r="E294" s="45" t="n"/>
+      <c r="D294" s="43" t="n"/>
+      <c r="E294" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="295">
-      <c r="D295" s="45" t="n"/>
-      <c r="E295" s="45" t="n"/>
+      <c r="D295" s="43" t="n"/>
+      <c r="E295" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="296">
-      <c r="D296" s="45" t="n"/>
-      <c r="E296" s="45" t="n"/>
+      <c r="D296" s="43" t="n"/>
+      <c r="E296" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="297">
-      <c r="D297" s="45" t="n"/>
-      <c r="E297" s="45" t="n"/>
+      <c r="D297" s="43" t="n"/>
+      <c r="E297" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="298">
-      <c r="D298" s="45" t="n"/>
-      <c r="E298" s="45" t="n"/>
+      <c r="D298" s="43" t="n"/>
+      <c r="E298" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="299">
-      <c r="D299" s="45" t="n"/>
-      <c r="E299" s="45" t="n"/>
+      <c r="D299" s="43" t="n"/>
+      <c r="E299" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="300">
-      <c r="D300" s="45" t="n"/>
-      <c r="E300" s="45" t="n"/>
+      <c r="D300" s="43" t="n"/>
+      <c r="E300" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="301">
-      <c r="D301" s="45" t="n"/>
-      <c r="E301" s="45" t="n"/>
+      <c r="D301" s="43" t="n"/>
+      <c r="E301" s="43" t="n"/>
     </row>
     <row outlineLevel="0" r="302">
-      <c r="D302" s="45" t="n"/>
-      <c r="E302" s="45" t="n"/>
-    </row>
-    <row outlineLevel="0" r="303">
-      <c r="D303" s="45" t="n"/>
-      <c r="E303" s="45" t="n"/>
-    </row>
-    <row outlineLevel="0" r="304">
-      <c r="D304" s="45" t="n"/>
-      <c r="E304" s="45" t="n"/>
-    </row>
-    <row outlineLevel="0" r="305">
-      <c r="D305" s="45" t="n"/>
-      <c r="E305" s="45" t="n"/>
+      <c r="D302" s="43" t="n"/>
+      <c r="E302" s="43" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>
